--- a/estadisticasFormato.xlsx
+++ b/estadisticasFormato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Tom\College\PDS-TPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEB3D66-D9A2-4D2C-BA40-F59AC3DD8731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF1E75-C071-472E-A82A-294DA0AB208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{33177C04-7548-4FEA-A375-AFC23043BE8D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="117">
   <si>
     <t>Cancion</t>
   </si>
@@ -368,6 +368,15 @@
   <si>
     <t>Con un error del</t>
   </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Por genero</t>
+  </si>
 </sst>
 </file>
 
@@ -629,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -700,22 +709,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,15 +736,33 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1301,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A18AEF8-BD3D-43E6-B2E4-148F8B2DCA4D}">
-  <dimension ref="B1:AN99"/>
+  <dimension ref="B1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK94" sqref="AK94"/>
+    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,46 +1419,46 @@
       <c r="C2" s="28">
         <v>0.05</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="38" t="s">
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="41" t="s">
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="32" t="s">
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="35" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="46"/>
       <c r="AI2" s="29" t="s">
         <v>6</v>
       </c>
@@ -1451,56 +1469,56 @@
       <c r="AN2" s="31"/>
     </row>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="44" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="38" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="38" t="s">
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41" t="s">
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="41" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="32" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="32" t="s">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="35" t="s">
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="35" t="s">
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="37"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
       <c r="AI3" s="29" t="s">
         <v>12</v>
       </c>
@@ -13105,31 +13123,216 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="99" spans="36:36" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>116</v>
+      </c>
       <c r="AJ99">
         <v>1</v>
       </c>
     </row>
+    <row r="100" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+    </row>
+    <row r="101" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E101" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C102" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D102" s="11">
+        <f>COUNTIFS($C$5:$C$94,$C102,$G$5:$G$94,"Si")</f>
+        <v>4</v>
+      </c>
+      <c r="E102" s="11">
+        <f>COUNTIFS($C$5:$C$94,$C102,$G$5:$G$94,"No")</f>
+        <v>6</v>
+      </c>
+      <c r="F102" s="51">
+        <f>D102/(D102+E102)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I102" s="28"/>
+    </row>
+    <row r="103" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C103" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D103" s="11">
+        <f t="shared" ref="D103:D110" si="24">COUNTIFS($C$5:$C$94,$C103,$G$5:$G$94,"Si")</f>
+        <v>5</v>
+      </c>
+      <c r="E103" s="11">
+        <f t="shared" ref="E103:E110" si="25">COUNTIFS($C$5:$C$94,$C103,$G$5:$G$94,"No")</f>
+        <v>5</v>
+      </c>
+      <c r="F103" s="52">
+        <f t="shared" ref="F103:F110" si="26">D103/(D103+E103)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="28"/>
+    </row>
+    <row r="104" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C104" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="11">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="E104" s="11">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="F104" s="52">
+        <f t="shared" si="26"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="I104" s="28"/>
+    </row>
+    <row r="105" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C105" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D105" s="11">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="E105" s="11">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="F105" s="52">
+        <f t="shared" si="26"/>
+        <v>0.2</v>
+      </c>
+      <c r="I105" s="28"/>
+    </row>
+    <row r="106" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C106" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D106" s="11">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="E106" s="11">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="F106" s="52">
+        <f t="shared" si="26"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I106" s="28"/>
+    </row>
+    <row r="107" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C107" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D107" s="11">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="E107" s="11">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="F107" s="52">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="I107" s="28"/>
+    </row>
+    <row r="108" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C108" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D108" s="11">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="E108" s="11">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="F108" s="52">
+        <f t="shared" si="26"/>
+        <v>0.5</v>
+      </c>
+      <c r="I108" s="28"/>
+    </row>
+    <row r="109" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="C109" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D109" s="11">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="E109" s="11">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="F109" s="52">
+        <f t="shared" si="26"/>
+        <v>0.3</v>
+      </c>
+      <c r="I109" s="28"/>
+    </row>
+    <row r="110" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="14">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="E110" s="14">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="F110" s="53">
+        <f t="shared" si="26"/>
+        <v>0.4</v>
+      </c>
+      <c r="I110" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="D100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="AI2:AN2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="Q2:V2"/>
     <mergeCell ref="W2:AB2"/>
     <mergeCell ref="AC2:AH2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G94">
     <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">

--- a/estadisticasFormato.xlsx
+++ b/estadisticasFormato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Tom\College\PDS-TPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAF1E75-C071-472E-A82A-294DA0AB208B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A117E0-BE5A-4AF3-B53D-84D1FE002A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{33177C04-7548-4FEA-A375-AFC23043BE8D}"/>
   </bookViews>
@@ -382,6 +382,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -638,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -696,10 +699,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -709,13 +715,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,33 +751,23 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1319,10 +1324,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A18AEF8-BD3D-43E6-B2E4-148F8B2DCA4D}">
-  <dimension ref="B1:AN110"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AN95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,10 +1344,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="55" t="s">
         <v>113</v>
       </c>
       <c r="E1">
@@ -1416,119 +1421,119 @@
       </c>
     </row>
     <row r="2" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="28">
+      <c r="C2" s="27">
         <v>0.05</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="35" t="s">
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="38" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="41" t="s">
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="44" t="s">
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="46"/>
-      <c r="AI2" s="29" t="s">
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="31"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="3" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="32" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35" t="s">
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="35" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38" t="s">
+      <c r="O3" s="42"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="38" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="45"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="41" t="s">
+      <c r="X3" s="36"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="44" t="s">
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="44" t="s">
+      <c r="AD3" s="39"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="29" t="s">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="29" t="s">
+      <c r="AJ3" s="33"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31"/>
+      <c r="AM3" s="33"/>
+      <c r="AN3" s="34"/>
     </row>
     <row r="4" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
@@ -13021,7 +13026,7 @@
         <f>AVERAGE(F5:F94)</f>
         <v>73.164097807142468</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G95" s="50">
         <f>COUNTIF(G5:G94,"Si")/COUNTA(G5:G94)</f>
         <v>0.37777777777777777</v>
       </c>
@@ -13030,7 +13035,7 @@
         <f>AVERAGE(I5:I94)</f>
         <v>10.265154091517132</v>
       </c>
-      <c r="J95" s="27">
+      <c r="J95" s="50">
         <f>COUNTIF(J5:J94,"Si")/COUNTA(J5:J94)</f>
         <v>0.15555555555555556</v>
       </c>
@@ -13038,7 +13043,7 @@
         <f>AVERAGE(L5:L94)</f>
         <v>191.01517405509944</v>
       </c>
-      <c r="M95" s="27">
+      <c r="M95" s="50">
         <f>COUNTIF(M5:M94,"Si")/COUNTA(M5:M94)</f>
         <v>0.31111111111111112</v>
       </c>
@@ -13046,7 +13051,7 @@
         <f>AVERAGE(O5:O94)</f>
         <v>42.330612481964948</v>
       </c>
-      <c r="P95" s="27">
+      <c r="P95" s="50">
         <f>COUNTIF(P5:P94,"Si")/COUNTA(P5:P94)</f>
         <v>0.16666666666666666</v>
       </c>
@@ -13054,7 +13059,7 @@
         <f>AVERAGE(R5:R94)</f>
         <v>344.28827175034417</v>
       </c>
-      <c r="S95" s="27">
+      <c r="S95" s="50">
         <f>COUNTIF(S5:S94,"Si")/COUNTA(S5:S94)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -13062,7 +13067,7 @@
         <f>AVERAGE(U5:U94)</f>
         <v>80.544469915495995</v>
       </c>
-      <c r="V95" s="27">
+      <c r="V95" s="50">
         <f>COUNTIF(V5:V94,"Si")/COUNTA(V5:V94)</f>
         <v>0.2</v>
       </c>
@@ -13070,7 +13075,7 @@
         <f>AVERAGE(X5:X94)</f>
         <v>577.97731032106617</v>
       </c>
-      <c r="Y95" s="27">
+      <c r="Y95" s="50">
         <f>COUNTIF(Y5:Y94,"Si")/COUNTA(Y5:Y94)</f>
         <v>0.34444444444444444</v>
       </c>
@@ -13078,7 +13083,7 @@
         <f>AVERAGE(AA5:AA94)</f>
         <v>145.47842261526318</v>
       </c>
-      <c r="AB95" s="27">
+      <c r="AB95" s="50">
         <f>COUNTIF(AB5:AB94,"Si")/COUNTA(AB5:AB94)</f>
         <v>0.17777777777777778</v>
       </c>
@@ -13086,7 +13091,7 @@
         <f>AVERAGE(AD5:AD94)</f>
         <v>742.89984411133673</v>
       </c>
-      <c r="AE95" s="27">
+      <c r="AE95" s="50">
         <f>COUNTIF(AE5:AE94,"Si")/COUNTA(AE5:AE94)</f>
         <v>0.37777777777777777</v>
       </c>
@@ -13094,7 +13099,7 @@
         <f>AVERAGE(AG5:AG94)</f>
         <v>174.79368618594279</v>
       </c>
-      <c r="AH95" s="27">
+      <c r="AH95" s="50">
         <f>COUNTIF(AH5:AH94,"Si")/COUNTA(AH5:AH94)</f>
         <v>0.17777777777777778</v>
       </c>
@@ -13102,7 +13107,7 @@
         <f>AVERAGE(AJ5:AJ94)</f>
         <v>986.52968745231613</v>
       </c>
-      <c r="AK95" s="27">
+      <c r="AK95" s="50">
         <f>COUNTIF(AK5:AK94,"Si")/COUNTA(AK5:AK94)</f>
         <v>0.4</v>
       </c>
@@ -13110,7 +13115,7 @@
         <f>AVERAGE(AM5:AM94)</f>
         <v>225.32467594411639</v>
       </c>
-      <c r="AN95" s="27">
+      <c r="AN95" s="50">
         <f>COUNTIF(AN5:AN94,"Si")/COUNTA(AN5:AN94)</f>
         <v>0.1</v>
       </c>
@@ -13132,25 +13137,25 @@
       </c>
     </row>
     <row r="100" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D100" s="47" t="s">
+      <c r="D100" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="47"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="47"/>
-      <c r="I100" s="47"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
     </row>
     <row r="101" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="48" t="s">
+      <c r="D101" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="E101" s="48" t="s">
+      <c r="E101" s="28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="102" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C102" s="48" t="s">
+      <c r="C102" s="28" t="s">
         <v>80</v>
       </c>
       <c r="D102" s="11">
@@ -13161,14 +13166,14 @@
         <f>COUNTIFS($C$5:$C$94,$C102,$G$5:$G$94,"No")</f>
         <v>6</v>
       </c>
-      <c r="F102" s="51">
+      <c r="F102" s="52">
         <f>D102/(D102+E102)</f>
         <v>0.4</v>
       </c>
-      <c r="I102" s="28"/>
+      <c r="I102" s="27"/>
     </row>
     <row r="103" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C103" s="49" t="s">
+      <c r="C103" s="29" t="s">
         <v>79</v>
       </c>
       <c r="D103" s="11">
@@ -13179,14 +13184,14 @@
         <f t="shared" ref="E103:E110" si="25">COUNTIFS($C$5:$C$94,$C103,$G$5:$G$94,"No")</f>
         <v>5</v>
       </c>
-      <c r="F103" s="52">
+      <c r="F103" s="53">
         <f t="shared" ref="F103:F110" si="26">D103/(D103+E103)</f>
         <v>0.5</v>
       </c>
-      <c r="I103" s="28"/>
+      <c r="I103" s="27"/>
     </row>
     <row r="104" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C104" s="49" t="s">
+      <c r="C104" s="29" t="s">
         <v>78</v>
       </c>
       <c r="D104" s="11">
@@ -13197,14 +13202,14 @@
         <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="F104" s="52">
+      <c r="F104" s="53">
         <f t="shared" si="26"/>
         <v>0.18181818181818182</v>
       </c>
-      <c r="I104" s="28"/>
+      <c r="I104" s="27"/>
     </row>
     <row r="105" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="29" t="s">
         <v>77</v>
       </c>
       <c r="D105" s="11">
@@ -13215,14 +13220,14 @@
         <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="F105" s="52">
+      <c r="F105" s="53">
         <f t="shared" si="26"/>
         <v>0.2</v>
       </c>
-      <c r="I105" s="28"/>
+      <c r="I105" s="27"/>
     </row>
     <row r="106" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D106" s="11">
@@ -13233,14 +13238,14 @@
         <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="F106" s="52">
+      <c r="F106" s="53">
         <f t="shared" si="26"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I106" s="28"/>
+      <c r="I106" s="27"/>
     </row>
     <row r="107" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C107" s="49" t="s">
+      <c r="C107" s="29" t="s">
         <v>76</v>
       </c>
       <c r="D107" s="11">
@@ -13251,14 +13256,14 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="F107" s="52">
+      <c r="F107" s="53">
         <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
-      <c r="I107" s="28"/>
+      <c r="I107" s="27"/>
     </row>
     <row r="108" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C108" s="49" t="s">
+      <c r="C108" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D108" s="11">
@@ -13269,14 +13274,14 @@
         <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="F108" s="52">
+      <c r="F108" s="53">
         <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
-      <c r="I108" s="28"/>
+      <c r="I108" s="27"/>
     </row>
     <row r="109" spans="3:36" x14ac:dyDescent="0.25">
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="29" t="s">
         <v>81</v>
       </c>
       <c r="D109" s="11">
@@ -13287,14 +13292,14 @@
         <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="F109" s="52">
+      <c r="F109" s="53">
         <f t="shared" si="26"/>
         <v>0.3</v>
       </c>
-      <c r="I109" s="28"/>
+      <c r="I109" s="27"/>
     </row>
     <row r="110" spans="3:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D110" s="14">
@@ -13305,14 +13310,23 @@
         <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="F110" s="53">
+      <c r="F110" s="54">
         <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
-      <c r="I110" s="28"/>
+      <c r="I110" s="27"/>
+    </row>
+    <row r="111" spans="3:36" x14ac:dyDescent="0.25">
+      <c r="F111" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AI2:AN2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AB2"/>
+    <mergeCell ref="AC2:AH2"/>
     <mergeCell ref="D100:F100"/>
     <mergeCell ref="G100:I100"/>
     <mergeCell ref="AL3:AN3"/>
@@ -13327,12 +13341,6 @@
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="AI2:AN2"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:AB2"/>
-    <mergeCell ref="AC2:AH2"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G94">
     <cfRule type="cellIs" dxfId="23" priority="45" operator="equal">
@@ -13431,6 +13439,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="14" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>